--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value18.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value18.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.109955248624143</v>
+        <v>4.201663017272949</v>
       </c>
       <c r="B1">
-        <v>1.474972083816991</v>
+        <v>5.601093292236328</v>
       </c>
       <c r="C1">
-        <v>1.644140045274952</v>
+        <v>4.481451511383057</v>
       </c>
       <c r="D1">
-        <v>1.803287861210163</v>
+        <v>5.155181884765625</v>
       </c>
       <c r="E1">
-        <v>2.125857104359719</v>
+        <v>5.543619632720947</v>
       </c>
     </row>
   </sheetData>
